--- a/dbms.xlsx
+++ b/dbms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deuedutr-my.sharepoint.com/personal/abdulkadir_oksuz_ogr_deu_edu_tr/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\DBMS\TermProject\Supermarket_Web_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C453A09F-BEB3-47D4-AC5A-3C452E4CBD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51089C0A-2975-42BF-BAA8-6E032392B967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22125" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{EEE1B461-6AFC-4C62-901F-C5E0139DE6A9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEE1B461-6AFC-4C62-901F-C5E0139DE6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,11 +591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1608A0C-F3D6-4759-9EAC-2B315E09CAAD}">
   <dimension ref="H5:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
@@ -603,6 +603,7 @@
     <col min="14" max="14" width="10.140625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
     <col min="30" max="30" width="10" customWidth="1"/>
@@ -610,7 +611,7 @@
     <col min="32" max="32" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="8:33">
+    <row r="5" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H5" s="11" t="s">
         <v>0</v>
       </c>
@@ -630,7 +631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="8:33">
+    <row r="6" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
@@ -695,7 +696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="8:33">
+    <row r="7" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H7" s="1">
         <v>12</v>
       </c>
@@ -720,7 +721,7 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="8:33">
+    <row r="8" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="1"/>
@@ -743,7 +744,7 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="8:33">
+    <row r="9" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="1"/>
@@ -766,7 +767,7 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="13" spans="8:33">
+    <row r="13" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H13" s="5" t="s">
         <v>20</v>
       </c>
@@ -774,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="8:33">
+    <row r="14" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,7 +807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="8:33">
+    <row r="15" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H15" s="1">
         <v>1</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="8:33">
+    <row r="16" spans="8:33" x14ac:dyDescent="0.25">
       <c r="H16" s="1">
         <v>2</v>
       </c>
@@ -838,7 +839,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="8:31">
+    <row r="17" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -852,7 +853,7 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="8:31">
+    <row r="18" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -863,10 +864,10 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
     </row>
-    <row r="20" spans="8:31" ht="17.25">
+    <row r="20" spans="8:31" ht="17.25" x14ac:dyDescent="0.25">
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="8:31">
+    <row r="21" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H21" s="7" t="s">
         <v>30</v>
       </c>
@@ -874,7 +875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="8:31">
+    <row r="22" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H22" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="8:31">
+    <row r="23" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -910,7 +911,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="8:31">
+    <row r="24" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -920,7 +921,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="8:31">
+    <row r="25" spans="8:31" x14ac:dyDescent="0.25">
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -937,15 +938,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Belge" ma:contentTypeID="0x01010070B57E60F213074FBF834FD375B85256" ma:contentTypeVersion="4" ma:contentTypeDescription="Yeni belge oluşturun." ma:contentTypeScope="" ma:versionID="bbe68ac859aebca4681fd30a23692d3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d6aba23-0921-4cb2-862b-8a5d6a0b6c68" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a8a204a09642bd5e3dfadd3892012b2" ns3:_="">
     <xsd:import namespace="1d6aba23-0921-4cb2-862b-8a5d6a0b6c68"/>
@@ -1091,6 +1083,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1098,13 +1099,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52987E8C-4F15-467E-9B77-E879F18C5817}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{581477B7-C31C-4A8D-8A5F-AC80441FD161}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d6aba23-0921-4cb2-862b-8a5d6a0b6c68"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{581477B7-C31C-4A8D-8A5F-AC80441FD161}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52987E8C-4F15-467E-9B77-E879F18C5817}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114628E7-3AE2-431C-A781-2C8A9FC6A298}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{114628E7-3AE2-431C-A781-2C8A9FC6A298}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>